--- a/excel/exported/sugar_pallets.xlsx
+++ b/excel/exported/sugar_pallets.xlsx
@@ -10,6 +10,56 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:49:31.0000000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:52:17.0000000</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:52:31.0000000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:56:34.0000000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:56:46.0000000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:56:56.0000000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2020-10-09 17:04:37.0000000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +101,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>